--- a/docs/unit2/07_reinforced/slope_design_input.xlsx
+++ b/docs/unit2/07_reinforced/slope_design_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/My Drive (njones61@gmail.com)/work - byu/courses/CE 544/homework/hw17 - reinforcement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jones\My Drive\work - byu\courses\CE 544\homework\hw17 - reinforcement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC22F7-303A-5E44-B0FE-183466A81BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99C3CA-22DD-40F2-B252-46AB95AEEA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="23020" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="2310" windowWidth="24660" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="b">Sheet1!$B$24</definedName>
+    <definedName name="b">Sheet1!$B$25</definedName>
     <definedName name="devlen">Sheet1!$F$12</definedName>
     <definedName name="gridlen">Sheet1!$F$13</definedName>
-    <definedName name="m">Sheet1!$B$23</definedName>
+    <definedName name="m">Sheet1!$B$24</definedName>
     <definedName name="tforce">Sheet1!$F$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>x</t>
   </si>
@@ -62,24 +62,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Reinforcement Line #1</t>
-  </si>
-  <si>
-    <t>Reinforcement Line #2</t>
-  </si>
-  <si>
-    <t>Reinforcement Line #3</t>
-  </si>
-  <si>
-    <t>Reinforcement Line #4</t>
-  </si>
-  <si>
-    <t>Reinforcement Line #5</t>
-  </si>
-  <si>
-    <t>Reinforcement Line #6</t>
-  </si>
-  <si>
     <t>FL</t>
   </si>
   <si>
@@ -144,6 +126,12 @@
   </si>
   <si>
     <t>CE 544 - Brigham Young University</t>
+  </si>
+  <si>
+    <t>Spacing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinforcement Line # </t>
   </si>
 </sst>
 </file>
@@ -282,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -304,10 +292,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -316,7 +304,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -325,12 +316,427 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -689,41 +1095,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="4.5" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -731,13 +1137,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -745,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>30</v>
       </c>
@@ -759,13 +1165,13 @@
         <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>32</v>
       </c>
@@ -773,22 +1179,22 @@
         <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="4">
         <v>-50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -796,16 +1202,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4">
         <v>800</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>-30</v>
       </c>
@@ -813,16 +1219,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -830,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4">
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>32</v>
       </c>
@@ -847,13 +1253,13 @@
         <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>100</v>
       </c>
@@ -861,67 +1267,61 @@
         <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F15" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="E16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="4">
+        <f>B15/(F15)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="7">
         <f>F14*F15*gridlen</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="E19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>30</v>
-      </c>
-      <c r="B19" s="3">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3">
-        <v>500</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>100</v>
       </c>
       <c r="B20" s="3">
         <v>24</v>
@@ -929,69 +1329,64 @@
       <c r="C20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="3">
-        <f>(G19-b)/m</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <f>G$19</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E22" s="3">
-        <f>E21+devlen</f>
+        <f>(G20-b)/m</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f>G$20</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="3">
+        <f>E22+devlen</f>
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <f>G$19</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <f>tforce</f>
-        <v>800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="4">
-        <f>(B7-B6)/(A7-A6)</f>
-        <v>0.8</v>
-      </c>
-      <c r="E23" s="3">
-        <f>E21+gridlen-devlen</f>
-        <v>26</v>
-      </c>
       <c r="F23" s="3">
-        <f>G$19</f>
+        <f>G$20</f>
         <v>0</v>
       </c>
       <c r="G23" s="3">
@@ -1002,101 +1397,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>0</v>
+        <f>(B7-B6)/(A7-A6)</f>
+        <v>0.8</v>
       </c>
       <c r="E24" s="3">
-        <f>E21+gridlen</f>
-        <v>30</v>
+        <f>E22+gridlen-devlen</f>
+        <v>26</v>
       </c>
       <c r="F24" s="3">
-        <f>G$19</f>
+        <f>G$20</f>
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11">
-        <v>3</v>
-      </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E29" s="3">
-        <f>(G27-b)/m</f>
-        <v>3.75</v>
-      </c>
-      <c r="F29" s="3">
-        <f>G$27</f>
-        <v>3</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E30" s="3">
-        <f>E29+devlen</f>
-        <v>7.75</v>
-      </c>
-      <c r="F30" s="3">
-        <f>G$27</f>
-        <v>3</v>
-      </c>
-      <c r="G30" s="3">
         <f>tforce</f>
         <v>800</v>
       </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <f>E22+gridlen</f>
+        <v>30</v>
+      </c>
+      <c r="F25" s="3">
+        <f>G$20</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="9">
+        <f>H19+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="11">
+        <v>3</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="3">
+        <f>(G28-b)/m</f>
+        <v>3.75</v>
+      </c>
+      <c r="F30" s="3">
+        <f>F22+$F$16</f>
+        <v>4</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
       <c r="H30" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" s="3">
-        <f>E29+gridlen-devlen</f>
-        <v>29.75</v>
+        <f>E30+devlen</f>
+        <v>7.75</v>
       </c>
       <c r="F31" s="3">
-        <f>G$27</f>
-        <v>3</v>
+        <f t="shared" ref="F31:F33" si="0">F23+$F$16</f>
+        <v>4</v>
       </c>
       <c r="G31" s="3">
         <f>tforce</f>
@@ -1106,95 +1511,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" s="3">
-        <f>E29+gridlen</f>
-        <v>33.75</v>
+        <f>E30+gridlen-devlen</f>
+        <v>29.75</v>
       </c>
       <c r="F32" s="3">
-        <f>G$27</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E34" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11">
-        <v>6</v>
-      </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E37" s="3">
-        <f>(G35-b)/m</f>
-        <v>7.5</v>
-      </c>
-      <c r="F37" s="3">
-        <f>$G$35</f>
-        <v>6</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E38" s="3">
-        <f>E37+devlen</f>
-        <v>11.5</v>
-      </c>
-      <c r="F38" s="3">
-        <f>$G$35</f>
-        <v>6</v>
-      </c>
-      <c r="G38" s="3">
         <f>tforce</f>
         <v>800</v>
       </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="3">
+        <f>E30+gridlen</f>
+        <v>33.75</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="9">
+        <f>H27+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="11">
+        <v>6</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="3">
+        <f>(G36-b)/m</f>
+        <v>7.5</v>
+      </c>
+      <c r="F38" s="3">
+        <f>F30+$F$16</f>
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
       <c r="H38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" s="3">
-        <f>E37+gridlen-devlen</f>
-        <v>33.5</v>
+        <f>E38+devlen</f>
+        <v>11.5</v>
       </c>
       <c r="F39" s="3">
-        <f>$G$35</f>
-        <v>6</v>
+        <f t="shared" ref="F39:F41" si="1">F31+$F$16</f>
+        <v>8</v>
       </c>
       <c r="G39" s="3">
         <f>tforce</f>
@@ -1204,95 +1612,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" s="3">
-        <f>E37+gridlen</f>
-        <v>37.5</v>
+        <f>E38+gridlen-devlen</f>
+        <v>33.5</v>
       </c>
       <c r="F40" s="3">
-        <f>$G$35</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="11">
-        <v>9</v>
-      </c>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E45" s="3">
-        <f>(G43-b)/m</f>
-        <v>11.25</v>
-      </c>
-      <c r="F45" s="3">
-        <f>$G$43</f>
-        <v>9</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E46" s="3">
-        <f>E45+devlen</f>
-        <v>15.25</v>
-      </c>
-      <c r="F46" s="3">
-        <f>$G$43</f>
-        <v>9</v>
-      </c>
-      <c r="G46" s="3">
         <f>tforce</f>
         <v>800</v>
       </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E41" s="3">
+        <f>E38+gridlen</f>
+        <v>37.5</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="9">
+        <f>H35+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="11">
+        <v>9</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E46" s="3">
+        <f>(G44-b)/m</f>
+        <v>11.25</v>
+      </c>
+      <c r="F46" s="3">
+        <f>F38+$F$16</f>
+        <v>12</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E47" s="3">
-        <f>E45+gridlen-devlen</f>
-        <v>37.25</v>
+        <f>E46+devlen</f>
+        <v>15.25</v>
       </c>
       <c r="F47" s="3">
-        <f>$G$43</f>
-        <v>9</v>
+        <f t="shared" ref="F47:F49" si="2">F39+$F$16</f>
+        <v>12</v>
       </c>
       <c r="G47" s="3">
         <f>tforce</f>
@@ -1302,95 +1713,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48" s="3">
-        <f>E45+gridlen</f>
-        <v>41.25</v>
+        <f>E46+gridlen-devlen</f>
+        <v>37.25</v>
       </c>
       <c r="F48" s="3">
-        <f>$G$43</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E50" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="11">
-        <v>12</v>
-      </c>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E53" s="3">
-        <f>(G51-b)/m</f>
-        <v>15</v>
-      </c>
-      <c r="F53" s="3">
-        <f>$G$51</f>
-        <v>12</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E54" s="3">
-        <f>E53+devlen</f>
-        <v>19</v>
-      </c>
-      <c r="F54" s="3">
-        <f>$G$51</f>
-        <v>12</v>
-      </c>
-      <c r="G54" s="3">
         <f>tforce</f>
         <v>800</v>
       </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E49" s="3">
+        <f>E46+gridlen</f>
+        <v>41.25</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="9">
+        <f>H43+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E52" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="G52" s="11">
+        <v>12</v>
+      </c>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E54" s="3">
+        <f>(G52-b)/m</f>
+        <v>15</v>
+      </c>
+      <c r="F54" s="3">
+        <f>F46+$F$16</f>
+        <v>16</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E55" s="3">
-        <f>E53+gridlen-devlen</f>
-        <v>41</v>
+        <f>E54+devlen</f>
+        <v>19</v>
       </c>
       <c r="F55" s="3">
-        <f>$G$51</f>
-        <v>12</v>
+        <f t="shared" ref="F55:F57" si="3">F47+$F$16</f>
+        <v>16</v>
       </c>
       <c r="G55" s="3">
         <f>tforce</f>
@@ -1400,95 +1814,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E56" s="3">
-        <f>E53+gridlen</f>
-        <v>45</v>
+        <f>E54+gridlen-devlen</f>
+        <v>41</v>
       </c>
       <c r="F56" s="3">
-        <f>$G$51</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E58" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-    </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="11">
-        <v>16</v>
-      </c>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E61" s="3">
-        <f>(G59-b)/m</f>
-        <v>20</v>
-      </c>
-      <c r="F61" s="3">
-        <f>$G$59</f>
-        <v>16</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E62" s="3">
-        <f>E61+devlen</f>
-        <v>24</v>
-      </c>
-      <c r="F62" s="3">
-        <f>$G$59</f>
-        <v>16</v>
-      </c>
-      <c r="G62" s="3">
         <f>tforce</f>
         <v>800</v>
       </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E57" s="3">
+        <f>E54+gridlen</f>
+        <v>45</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="9">
+        <f>H51+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E60" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="11">
+        <v>16</v>
+      </c>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E62" s="3">
+        <f>(G60-b)/m</f>
+        <v>20</v>
+      </c>
+      <c r="F62" s="3">
+        <f>F54+$F$16</f>
+        <v>20</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E63" s="3">
-        <f>E61+gridlen-devlen</f>
-        <v>46</v>
+        <f>E62+devlen</f>
+        <v>24</v>
       </c>
       <c r="F63" s="3">
-        <f>$G$59</f>
-        <v>16</v>
+        <f t="shared" ref="F63:F65" si="4">F55+$F$16</f>
+        <v>20</v>
       </c>
       <c r="G63" s="3">
         <f>tforce</f>
@@ -1498,46 +1915,529 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E64" s="3">
-        <f>E61+gridlen</f>
+        <f>E62+gridlen-devlen</f>
+        <v>46</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="G64" s="3">
+        <f>tforce</f>
+        <v>800</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E65" s="3">
+        <f>E62+gridlen</f>
         <v>50</v>
       </c>
-      <c r="F64" s="3">
-        <f>$G$59</f>
+      <c r="F65" s="3">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="9">
+        <f>H59+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E68" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="14"/>
+      <c r="G68" s="11">
         <v>16</v>
       </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E70" s="3">
+        <f>(G68-b)/m</f>
+        <v>20</v>
+      </c>
+      <c r="F70" s="3">
+        <f>F62+$F$16</f>
+        <v>24</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E71" s="3">
+        <f>E70+devlen</f>
+        <v>24</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" ref="F71:F73" si="5">F63+$F$16</f>
+        <v>24</v>
+      </c>
+      <c r="G71" s="3">
+        <f>tforce</f>
+        <v>800</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E72" s="3">
+        <f>E70+gridlen-devlen</f>
+        <v>46</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G72" s="3">
+        <f>tforce</f>
+        <v>800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E73" s="3">
+        <f>E70+gridlen</f>
+        <v>50</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="9">
+        <f>H67+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E76" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="14"/>
+      <c r="G76" s="11">
+        <v>16</v>
+      </c>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E78" s="3">
+        <f>(G76-b)/m</f>
+        <v>20</v>
+      </c>
+      <c r="F78" s="3">
+        <f>F70+$F$16</f>
+        <v>28</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E79" s="3">
+        <f>E78+devlen</f>
+        <v>24</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" ref="F79:F81" si="6">F71+$F$16</f>
+        <v>28</v>
+      </c>
+      <c r="G79" s="3">
+        <f>tforce</f>
+        <v>800</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E80" s="3">
+        <f>E78+gridlen-devlen</f>
+        <v>46</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="G80" s="3">
+        <f>tforce</f>
+        <v>800</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E81" s="3">
+        <f>E78+gridlen</f>
+        <v>50</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E83" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="9">
+        <f>H75+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E84" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="11">
+        <v>16</v>
+      </c>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E86" s="3">
+        <f>(G84-b)/m</f>
+        <v>20</v>
+      </c>
+      <c r="F86" s="3">
+        <f>F78+$F$16</f>
+        <v>32</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E87" s="3">
+        <f>E86+devlen</f>
+        <v>24</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" ref="F87:F89" si="7">F79+$F$16</f>
+        <v>32</v>
+      </c>
+      <c r="G87" s="3">
+        <f>tforce</f>
+        <v>800</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E88" s="3">
+        <f>E86+gridlen-devlen</f>
+        <v>46</v>
+      </c>
+      <c r="F88" s="3">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="G88" s="3">
+        <f>tforce</f>
+        <v>800</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E89" s="3">
+        <f>E86+gridlen</f>
+        <v>50</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E91" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="9">
+        <f>H83+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E92" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="14"/>
+      <c r="G92" s="11">
+        <v>16</v>
+      </c>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E93" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E94" s="3">
+        <f>(G92-b)/m</f>
+        <v>20</v>
+      </c>
+      <c r="F94" s="3">
+        <f>F86+$F$16</f>
+        <v>36</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E95" s="3">
+        <f>E94+devlen</f>
+        <v>24</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" ref="F95:F97" si="8">F87+$F$16</f>
+        <v>36</v>
+      </c>
+      <c r="G95" s="3">
+        <f>tforce</f>
+        <v>800</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E96" s="3">
+        <f>E94+gridlen-devlen</f>
+        <v>46</v>
+      </c>
+      <c r="F96" s="3">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="G96" s="3">
+        <f>tforce</f>
+        <v>800</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E97" s="3">
+        <f>E94+gridlen</f>
+        <v>50</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="G35:H35"/>
+  <mergeCells count="33">
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E59:G59"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E35:G35"/>
   </mergeCells>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="greaterThan">
+      <formula>$F$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>$F$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>$F$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>$F$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>$F$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>$F$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>$F$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>$F$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>$F$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$F$15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1551,7 +2451,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1564,7 +2464,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
